--- a/data_handler/config_calc_words(India)/3-statistic_config-phen weeks.xlsx
+++ b/data_handler/config_calc_words(India)/3-statistic_config-phen weeks.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F6780-8C19-4043-98EF-A1283EBBBC47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9989428-8412-4FBE-9E2D-1B2CE0385903}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C2" s="33">
         <f ca="1">TODAY()</f>
-        <v>44176</v>
+        <v>44221</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>44</v>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B6" s="35" t="str">
         <f ca="1">TEXT('time process'!$C$2 -1 -4*7,"YYYY/mm/dd")</f>
-        <v>2020/11/12</v>
+        <v>2020/12/27</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>13</v>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B7" s="35" t="str">
         <f ca="1">TEXT('time process'!$C$2 -1 -3*7,"YYYY/mm/dd")</f>
-        <v>2020/11/19</v>
+        <v>2021/01/03</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>13</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B8" s="35" t="str">
         <f ca="1">TEXT('time process'!$C$2 -1 -2*7,"YYYY/mm/dd")</f>
-        <v>2020/11/26</v>
+        <v>2021/01/10</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>13</v>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B9" s="35" t="str">
         <f ca="1">TEXT('time process'!$C$2 -1 -1*7,"YYYY/mm/dd")</f>
-        <v>2020/12/03</v>
+        <v>2021/01/17</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>13</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B10" s="35" t="str">
         <f ca="1">TEXT('time process'!$C$2 - 1 -1*0,"YYYY/mm/dd")</f>
-        <v>2020/12/10</v>
+        <v>2021/01/24</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>13</v>
